--- a/sched-core/sched/doc/调度系统部署文档.xlsx
+++ b/sched-core/sched/doc/调度系统部署文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变量说明" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="233">
   <si>
     <t>变量名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,9 +139,6 @@
     <t>源表类型</t>
   </si>
   <si>
-    <t>src_columns</t>
-  </si>
-  <si>
     <t>源表待同步字段</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>源表过滤条件</t>
   </si>
   <si>
-    <t>page_size</t>
-  </si>
-  <si>
     <t>分页大小</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
   </si>
   <si>
     <t>目标表映射字段</t>
-  </si>
-  <si>
-    <t>tar_create_mode</t>
   </si>
   <si>
     <t>目标表创建模式</t>
@@ -666,10 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min_row_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最小记录数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,6 +876,47 @@
   </si>
   <si>
     <t>前一天1点 -&gt; 当天0点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_db_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_table_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_time_columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar_db_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar_create_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar_load_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步
+（mysql到hive）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +965,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1014,11 +1042,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1062,6 +1110,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,6 +1183,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1486,21 +1543,21 @@
         <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1511,24 +1568,24 @@
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1571,65 +1628,65 @@
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>98</v>
+      <c r="C3" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="6" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1643,29 +1700,29 @@
         <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1703,195 +1760,195 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1906,9 +1963,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1920,149 +1979,149 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40">
+      <c r="A2" s="41">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
+        <v>1</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40">
-        <v>1</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2070,983 +2129,1158 @@
         <v>31</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="10" t="s">
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="10" t="s">
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="10" t="s">
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="10" t="s">
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="41"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40">
+      <c r="A22" s="41">
         <v>2</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>106</v>
+      <c r="B22" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="41"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="10" t="s">
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="41">
+        <v>3</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="41"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="41"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="41"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="41"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="41">
+        <v>4</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="41"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="41"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="41"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="41"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40">
-        <v>3</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40">
-        <v>4</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E42" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="41"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="E43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="40"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="40"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="40"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="40">
+      <c r="A46" s="41">
         <v>5</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="40"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="40"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="40"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="40"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="40"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="41"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="40"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="40"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="40"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="40"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="40"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="40"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="40"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="40"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="40">
+      <c r="A60" s="41">
         <v>6</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>172</v>
+      <c r="B60" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="40"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="40"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="40"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="40"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="40"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="40"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="40"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="40">
+      <c r="A68" s="41">
         <v>7</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="41"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="D69" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="10" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="41">
+        <v>8</v>
+      </c>
+      <c r="B70" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="40"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="40">
-        <v>8</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="40"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="40"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="40"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="40"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="40">
+      <c r="A75" s="41">
         <v>9</v>
       </c>
-      <c r="B75" s="33" t="s">
-        <v>199</v>
+      <c r="B75" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="41"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="41"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="41"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="41"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="40"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="40"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="E79" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="41"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="40"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="40"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="40"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="10" t="s">
+      <c r="E80" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="41"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="40"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="D81" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="40">
+      <c r="A82" s="41">
         <v>10</v>
       </c>
-      <c r="B82" s="32" t="s">
-        <v>202</v>
+      <c r="B82" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="40"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="40"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="40"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="40"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="40"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="40"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="40"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="42">
+        <v>11</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="43"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="43"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="43"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="43"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="43"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="43"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="43"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="43"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="43"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="43"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="43"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="B90:B102"/>
+    <mergeCell ref="A90:A102"/>
     <mergeCell ref="A82:A89"/>
     <mergeCell ref="A46:A59"/>
     <mergeCell ref="A60:A67"/>
@@ -3089,32 +3323,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/sched-core/sched/doc/调度系统部署文档.xlsx
+++ b/sched-core/sched/doc/调度系统部署文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="243">
   <si>
     <t>变量名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>src_field_sep</t>
   </si>
   <si>
@@ -513,10 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alarm_way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,42 +657,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MySQL表备份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src_db_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src_tables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tar_dir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backup_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tar_host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tar_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tar_passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tar_port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备份文件个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +682,6 @@
   </si>
   <si>
     <t>名称 地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>try_times</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -831,14 +787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sub_mobiles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_emails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/var/schedule/log/task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,6 +865,96 @@
   <si>
     <t>数据同步
 （mysql到hive）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步
+（hive到mysql）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_file</t>
+  </si>
+  <si>
+    <t>file_suffix</t>
+  </si>
+  <si>
+    <t>skip_latest</t>
+  </si>
+  <si>
+    <t>入库后直接删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库后文件后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时忽略最新的一个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET col_name = expr,…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL表备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_db_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar_dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar_host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar_passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_emails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_mobiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1113,6 +1151,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,6 +1200,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,18 +1230,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1543,21 +1584,21 @@
         <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1571,7 +1612,7 @@
         <v>89</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1585,7 +1626,7 @@
         <v>88</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1638,55 +1679,55 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="6" t="s">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="6" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1700,17 +1741,17 @@
         <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1718,9 +1759,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="7" t="s">
         <v>99</v>
       </c>
@@ -1764,13 +1805,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1858,13 +1899,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -1891,10 +1932,10 @@
         <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>82</v>
@@ -1939,7 +1980,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>82</v>
@@ -1963,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:A102"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1979,7 +2020,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>52</v>
@@ -1995,122 +2036,122 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41">
+      <c r="A2" s="38">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="38">
+        <v>1</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
-        <v>1</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="10" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>29</v>
@@ -2120,8 +2161,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
@@ -2133,10 +2174,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="10" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>32</v>
@@ -2146,10 +2187,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="10" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>34</v>
@@ -2159,8 +2200,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
@@ -2172,10 +2213,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="10" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>37</v>
@@ -2185,10 +2226,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="10" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>39</v>
@@ -2198,8 +2239,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
@@ -2211,8 +2252,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
@@ -2224,8 +2265,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
@@ -2237,10 +2278,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="10" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>46</v>
@@ -2250,10 +2291,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="10" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>48</v>
@@ -2263,10 +2304,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41">
+      <c r="A22" s="38">
         <v>2</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -2280,8 +2321,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="10" t="s">
         <v>49</v>
       </c>
@@ -2293,8 +2334,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="10" t="s">
         <v>38</v>
       </c>
@@ -2306,8 +2347,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
@@ -2319,8 +2360,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="10" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2373,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="10" t="s">
         <v>47</v>
       </c>
@@ -2345,10 +2386,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="10" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>69</v>
@@ -2358,10 +2399,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41">
+      <c r="A29" s="38">
         <v>3</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2375,8 +2416,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10" t="s">
         <v>61</v>
       </c>
@@ -2388,8 +2429,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="10" t="s">
         <v>62</v>
       </c>
@@ -2401,8 +2442,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="10" t="s">
         <v>68</v>
       </c>
@@ -2414,8 +2455,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10" t="s">
         <v>63</v>
       </c>
@@ -2427,882 +2468,1100 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="41">
+      <c r="A34" s="38">
         <v>4</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>124</v>
+      <c r="B34" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="41"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="10" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="41"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="41"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="38"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="10" t="s">
+      <c r="E39" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="38"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="38"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="38"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="38"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="38"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="41"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="41"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="10" t="s">
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="38"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="41"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="41"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="41"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="41"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41">
+      <c r="A46" s="38"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="38"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="38"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="38">
         <v>5</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B49" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="38"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="38"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="41"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="41"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="41"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="41"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="41"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D52" s="10"/>
       <c r="E52" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="41"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="41"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="38"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="41"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="10"/>
       <c r="E55" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="41"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="41"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="41"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D58" s="10"/>
       <c r="E58" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="41"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="41">
+      <c r="A60" s="38"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="38"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="38"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="38">
         <v>6</v>
       </c>
-      <c r="B60" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="41"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="41"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="41"/>
-      <c r="B63" s="33"/>
+      <c r="B63" s="35" t="s">
+        <v>231</v>
+      </c>
       <c r="C63" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>177</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D63" s="10"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="41"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="10" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="41"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="10"/>
+        <v>234</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="41"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="35"/>
       <c r="C66" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" s="10"/>
+        <v>235</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="41"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="10" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="41">
+      <c r="A68" s="38"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="38"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="38"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="38">
         <v>7</v>
       </c>
-      <c r="B68" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="41"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="41">
+      <c r="B71" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="38"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="38">
         <v>8</v>
       </c>
-      <c r="B70" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="41"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="41"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="41"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="42" t="s">
+        <v>175</v>
+      </c>
       <c r="C73" s="10" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="41"/>
-      <c r="B74" s="39"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="41">
+      <c r="A75" s="38"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="38"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="38"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="38">
         <v>9</v>
       </c>
-      <c r="B75" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B78" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="41"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="10" t="s">
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="38"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D79" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="41"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="10" t="s">
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="38"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="41"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="10" t="s">
+      <c r="E80" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="38"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="41"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="10" t="s">
+      <c r="E81" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="38"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="41"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="10" t="s">
+      <c r="E82" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="38"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="41"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="10" t="s">
+      <c r="E83" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="38"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="41">
+      <c r="E84" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="38">
         <v>10</v>
       </c>
-      <c r="B82" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="41"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="41"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="41"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="10" t="s">
-        <v>202</v>
+      <c r="B85" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="13" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="41"/>
-      <c r="B86" s="33"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="10" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="41"/>
-      <c r="B87" s="33"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="10" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="41"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="10" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="41"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="10" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="42">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="38"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="38"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="38"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="36">
         <v>11</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="10" t="s">
+      <c r="B93" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="43"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="43"/>
-      <c r="B94" s="33"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="10" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D94" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="37"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="37"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="37"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E94" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="43"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="10" t="s">
+      <c r="E97" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="37"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D98" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D96" s="10" t="s">
+      <c r="E98" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="37"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E96" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="10" t="s">
+      <c r="E99" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="37"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E100" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="43"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="10" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="37"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D101" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="43"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="10" t="s">
+      <c r="E101" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="37"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D102" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="43"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="10" t="s">
+      <c r="E102" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="37"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D103" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="43"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="E103" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="37"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="43"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="E104" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="37"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E105" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="36">
+        <v>12</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="37"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="37"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="37"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="37"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="37"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="37"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="37"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="37"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="37"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="37"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="37"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="37"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="18" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B90:B102"/>
-    <mergeCell ref="A90:A102"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A46:A59"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A75:A81"/>
+  <mergeCells count="26">
+    <mergeCell ref="A106:A118"/>
+    <mergeCell ref="B106:B118"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B49:B62"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="B29:B33"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B46:B59"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B34:B45"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="A34:A48"/>
+    <mergeCell ref="B93:B105"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A49:A62"/>
+    <mergeCell ref="A63:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B85:B92"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B63:B70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3323,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -3348,7 +3607,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
